--- a/Documentaçao/5W2H.xlsx
+++ b/Documentaçao/5W2H.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sprint-3\Documentaçao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784F3509-26A5-4968-A9F1-D7ED7DC3C0D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08684DA2-8867-439F-AAF7-C49BDD24F7B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{E978803C-E01E-4043-9E84-613D9AFD8C93}"/>
   </bookViews>
